--- a/Master/MasterData/Buff.xlsx
+++ b/Master/MasterData/Buff.xlsx
@@ -28,7 +28,7 @@
     <t xml:space="preserve">SPEEDUP</t>
   </si>
   <si>
-    <t xml:space="preserve">REGENE</t>
+    <t xml:space="preserve">AUTO_HEAL</t>
   </si>
   <si>
     <t xml:space="preserve">POISON</t>
@@ -70,7 +70,7 @@
     <t xml:space="preserve">スピードアップ</t>
   </si>
   <si>
-    <t xml:space="preserve">リジェネ</t>
+    <t xml:space="preserve">自動回復</t>
   </si>
   <si>
     <t xml:space="preserve">毒</t>
@@ -284,7 +284,7 @@
   <dimension ref="A3:F28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
+      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
